--- a/IBK/excel/RA_BL_result_0716.xlsx
+++ b/IBK/excel/RA_BL_result_0716.xlsx
@@ -2436,18 +2436,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>SHINDAO, CHINA</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MAY.18.2019</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>NEW SHINDAO PEARL</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>000000264.jpg</t>
   </si>
   <si>
@@ -3004,6 +2996,14 @@
   <si>
     <t xml:space="preserve">TO THE ORDER OF BANK OF BEIRUT SAL  BEIRUT-LEBANON </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEW SHIDAO PEARL</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIDAO, CHINA</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3423,7 +3423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3434,14 +3434,14 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.25" style="1" bestFit="1" customWidth="1"/>
@@ -3471,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -3563,21 +3563,21 @@
         <v>643</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>652</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>649</v>
@@ -3586,414 +3586,414 @@
         <v>642</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>655</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>661</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>644</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>668</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="G9" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>675</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>683</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>684</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>691</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>699</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>699</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>709</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>717</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="F16" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>769</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="F17" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>724</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>725</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>732</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="G19" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>740</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>746</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>751</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>752</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>762</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4069,7 +4069,7 @@
         <v>549</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4092,7 +4092,7 @@
         <v>549</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4184,7 +4184,7 @@
         <v>620</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>552</v>
@@ -4210,7 +4210,7 @@
         <v>620</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>552</v>
@@ -4230,13 +4230,13 @@
         <v>399</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>621</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>511</v>
@@ -4265,7 +4265,7 @@
         <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>512</v>
@@ -4364,7 +4364,7 @@
         <v>614</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>39</v>
@@ -4390,7 +4390,7 @@
         <v>613</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
@@ -4410,13 +4410,13 @@
         <v>408</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>566</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>514</v>
@@ -4428,7 +4428,7 @@
         <v>567</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -4454,7 +4454,7 @@
         <v>569</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -4488,7 +4488,7 @@
         <v>406</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>572</v>
@@ -4532,7 +4532,7 @@
         <v>549</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4558,7 +4558,7 @@
         <v>551</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4584,7 +4584,7 @@
         <v>551</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -4592,13 +4592,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>611</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>511</v>
@@ -4618,7 +4618,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>622</v>
@@ -4644,7 +4644,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>574</v>
@@ -4670,7 +4670,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>574</v>
@@ -4728,7 +4728,7 @@
         <v>622</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>520</v>
@@ -4740,7 +4740,7 @@
         <v>551</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -4870,7 +4870,7 @@
         <v>558</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4896,7 +4896,7 @@
         <v>588</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4907,7 +4907,7 @@
         <v>589</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -4935,7 +4935,7 @@
         <v>592</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4946,13 +4946,13 @@
         <v>607</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>487</v>
@@ -4998,7 +4998,7 @@
         <v>537</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>491</v>
@@ -5012,7 +5012,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>595</v>
@@ -5021,7 +5021,7 @@
         <v>537</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>493</v>
@@ -5100,7 +5100,7 @@
         <v>601</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -5155,7 +5155,7 @@
         <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>83</v>
@@ -5184,7 +5184,7 @@
         <v>543</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>544</v>
@@ -5199,7 +5199,7 @@
         <v>86</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>545</v>

--- a/IBK/excel/RA_BL_result_0716.xlsx
+++ b/IBK/excel/RA_BL_result_0716.xlsx
@@ -2140,9 +2140,6 @@
     <t>FEB  17 2019</t>
   </si>
   <si>
-    <t>MERCANTILE BANK LIMITED ELEPHANT ROAD BRANCH  DHAKA  BANGLADESH 8IN NO  000151542</t>
-  </si>
-  <si>
     <t xml:space="preserve">EUNHA SHIPPING CO   LTD </t>
   </si>
   <si>
@@ -3004,6 +3001,10 @@
   <si>
     <t>SHIDAO, CHINA</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>MERCANTILE BANK LIMITED ELEPHANT ROAD BRANCH  DHAKA  BANGLADESH BIN NO  000151542</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3435,7 +3436,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3471,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -3479,521 +3480,521 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>638</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>645</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>650</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>654</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>660</v>
-      </c>
       <c r="H7" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>667</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="9" t="s">
         <v>674</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>682</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>693</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>701</v>
-      </c>
       <c r="E13" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>698</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>708</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>716</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>768</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="H17" s="9" t="s">
         <v>723</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>731</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="9" t="s">
         <v>739</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>745</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>751</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>760</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4004,7 +4005,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>502</v>
@@ -4054,7 +4055,7 @@
         <v>548</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>548</v>
@@ -4069,7 +4070,7 @@
         <v>549</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4077,7 +4078,7 @@
         <v>412</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>550</v>
@@ -4092,7 +4093,7 @@
         <v>549</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4103,7 +4104,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>28</v>
@@ -4129,7 +4130,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>30</v>
@@ -4155,7 +4156,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>30</v>
@@ -4181,10 +4182,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>552</v>
@@ -4207,10 +4208,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>552</v>
@@ -4230,13 +4231,13 @@
         <v>399</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>511</v>
@@ -4259,13 +4260,13 @@
         <v>554</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>512</v>
@@ -4308,13 +4309,13 @@
         <v>467</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>560</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>561</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>36</v>
@@ -4323,7 +4324,7 @@
         <v>512</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>501</v>
@@ -4340,7 +4341,7 @@
         <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>513</v>
@@ -4358,13 +4359,13 @@
         <v>398</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>39</v>
@@ -4373,7 +4374,7 @@
         <v>510</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H37" s="10" t="s">
         <v>476</v>
@@ -4384,13 +4385,13 @@
         <v>400</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
@@ -4399,7 +4400,7 @@
         <v>510</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>476</v>
@@ -4410,13 +4411,13 @@
         <v>408</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>514</v>
@@ -4425,10 +4426,10 @@
         <v>512</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -4436,13 +4437,13 @@
         <v>407</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>514</v>
@@ -4451,10 +4452,10 @@
         <v>512</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -4462,10 +4463,10 @@
         <v>413</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>33</v>
@@ -4488,13 +4489,13 @@
         <v>406</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>516</v>
@@ -4503,7 +4504,7 @@
         <v>517</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>479</v>
@@ -4517,7 +4518,7 @@
         <v>548</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>548</v>
@@ -4532,7 +4533,7 @@
         <v>549</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4543,7 +4544,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>28</v>
@@ -4558,7 +4559,7 @@
         <v>551</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4569,7 +4570,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>44</v>
@@ -4584,7 +4585,7 @@
         <v>551</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -4592,13 +4593,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>511</v>
@@ -4618,10 +4619,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>519</v>
@@ -4644,10 +4645,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>49</v>
@@ -4670,13 +4671,13 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>522</v>
@@ -4685,7 +4686,7 @@
         <v>523</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>483</v>
@@ -4696,13 +4697,13 @@
         <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>520</v>
@@ -4711,10 +4712,10 @@
         <v>521</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -4725,10 +4726,10 @@
         <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>520</v>
@@ -4740,7 +4741,7 @@
         <v>551</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -4748,10 +4749,10 @@
         <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>56</v>
@@ -4763,7 +4764,7 @@
         <v>524</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>484</v>
@@ -4774,10 +4775,10 @@
         <v>466</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>57</v>
@@ -4789,7 +4790,7 @@
         <v>503</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>485</v>
@@ -4803,10 +4804,10 @@
         <v>60</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>526</v>
@@ -4829,10 +4830,10 @@
         <v>527</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>528</v>
@@ -4855,7 +4856,7 @@
         <v>529</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>530</v>
@@ -4870,7 +4871,7 @@
         <v>558</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4878,13 +4879,13 @@
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>532</v>
@@ -4893,10 +4894,10 @@
         <v>66</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4904,10 +4905,10 @@
         <v>465</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -4920,10 +4921,10 @@
         <v>533</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>534</v>
@@ -4932,10 +4933,10 @@
         <v>503</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4943,16 +4944,16 @@
         <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>487</v>
@@ -4966,10 +4967,10 @@
         <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>535</v>
@@ -4989,16 +4990,16 @@
         <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>537</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>491</v>
@@ -5012,16 +5013,16 @@
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>537</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>493</v>
@@ -5038,10 +5039,10 @@
         <v>73</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>538</v>
@@ -5050,7 +5051,7 @@
         <v>539</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>494</v>
@@ -5061,16 +5062,16 @@
         <v>464</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>546</v>
@@ -5085,10 +5086,10 @@
         <v>76</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>540</v>
@@ -5097,10 +5098,10 @@
         <v>510</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -5108,11 +5109,11 @@
         <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>541</v>
@@ -5121,7 +5122,7 @@
         <v>542</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>495</v>
@@ -5135,16 +5136,16 @@
         <v>79</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>510</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>496</v>
@@ -5155,7 +5156,7 @@
         <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>83</v>
@@ -5184,7 +5185,7 @@
         <v>543</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>544</v>
@@ -5199,7 +5200,7 @@
         <v>86</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>545</v>
@@ -5211,7 +5212,7 @@
         <v>87</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>500</v>

--- a/IBK/excel/RA_BL_result_0716.xlsx
+++ b/IBK/excel/RA_BL_result_0716.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="803">
   <si>
     <t>file name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2887,10 +2887,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HDFC BANK LTD  IV FLOOR  NO 115  RADHAKRISHNAN SALAI  MYLAPORE  CHENNAI 600004  INDIA AND RANE TRW STEERING SYSTEMS PVT LTD OCCUPANT SAFETY DIVISION 48TH KM  GST ROAD(NH45) SINGAPERUMAL K0IL-603204  INDIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">TO THE ORDER OF HDFC BANK LTD  IV FLOOR  NO 115  RADHAKRISHNAN SALAI  MYLAPORE  CHENNAI 600004  INDIA </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3004,6 +3000,14 @@
   </si>
   <si>
     <t>MERCANTILE BANK LIMITED ELEPHANT ROAD BRANCH  DHAKA  BANGLADESH BIN NO  000151542</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDFC BANK LTD  IV FLOOR  NO 115  RADHAKRISHNAN SALAI  MYLAPORE  CHENNAI 600004  INDIA AND RANE TRW STEERING SYSTEMS PVT LTD OCCUPANT SAFETY DIVISION 48TH KM  GST ROAD(NH45) SINGAPERUMAL KOIL-603204  INDIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDFC BANK LTD  IV FLOOR  NO 115  RADHAKRISHNAN SALAI  MYLAPORE  CHENNAI 600004  INDIA AND RANE TRW STEERING SYSTEMS PVT LTD OCCUPANT SAFETY DIVISION 48TH KM  GST ROAD(NH45) SINGAPERUMAL KOIL-603204  INDIA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3424,7 +3428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3436,7 +3440,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3570,7 +3574,7 @@
         <v>649</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
@@ -3590,7 +3594,7 @@
         <v>652</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>653</v>
@@ -4231,13 +4235,13 @@
         <v>399</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>620</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>772</v>
+        <v>802</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>511</v>
@@ -4266,7 +4270,7 @@
         <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>512</v>
@@ -4309,7 +4313,7 @@
         <v>467</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>559</v>
@@ -4365,7 +4369,7 @@
         <v>613</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>39</v>
@@ -4391,7 +4395,7 @@
         <v>612</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
@@ -4411,13 +4415,13 @@
         <v>408</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>565</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>514</v>
@@ -4429,7 +4433,7 @@
         <v>566</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -4455,7 +4459,7 @@
         <v>568</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -4489,7 +4493,7 @@
         <v>406</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>571</v>
@@ -4533,7 +4537,7 @@
         <v>549</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4559,7 +4563,7 @@
         <v>551</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4585,7 +4589,7 @@
         <v>551</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -4593,13 +4597,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>610</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>511</v>
@@ -4619,7 +4623,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>621</v>
@@ -4645,7 +4649,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>573</v>
@@ -4671,7 +4675,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>573</v>
@@ -4729,7 +4733,7 @@
         <v>621</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>520</v>
@@ -4741,7 +4745,7 @@
         <v>551</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -4871,7 +4875,7 @@
         <v>558</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4897,7 +4901,7 @@
         <v>587</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4908,7 +4912,7 @@
         <v>588</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -4936,7 +4940,7 @@
         <v>591</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4947,13 +4951,13 @@
         <v>606</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>487</v>
@@ -4999,7 +5003,7 @@
         <v>537</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>491</v>
@@ -5013,7 +5017,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>594</v>
@@ -5022,7 +5026,7 @@
         <v>537</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>493</v>
@@ -5101,7 +5105,7 @@
         <v>600</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -5156,7 +5160,7 @@
         <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>83</v>
@@ -5185,7 +5189,7 @@
         <v>543</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>544</v>
@@ -5200,7 +5204,7 @@
         <v>86</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>545</v>

--- a/IBK/excel/RA_BL_result_0716.xlsx
+++ b/IBK/excel/RA_BL_result_0716.xlsx
@@ -1861,10 +1861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HEUNG-A PUSAN V-1299S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NORDMARSH</t>
   </si>
   <si>
@@ -3008,6 +3004,10 @@
   </si>
   <si>
     <t>HDFC BANK LTD  IV FLOOR  NO 115  RADHAKRISHNAN SALAI  MYLAPORE  CHENNAI 600004  INDIA AND RANE TRW STEERING SYSTEMS PVT LTD OCCUPANT SAFETY DIVISION 48TH KM  GST ROAD(NH45) SINGAPERUMAL KOIL-603204  INDIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEUNG-A PUSAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3428,7 +3428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3440,7 +3440,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -3484,521 +3484,521 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>629</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>644</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>649</v>
-      </c>
       <c r="H5" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>653</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>659</v>
-      </c>
       <c r="H7" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="9" t="s">
         <v>673</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>681</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>688</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>692</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>697</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>700</v>
-      </c>
       <c r="E13" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>697</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>715</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>767</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="H17" s="9" t="s">
         <v>722</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>730</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>736</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="17" t="s">
         <v>737</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="9" t="s">
         <v>738</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>744</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>759</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4009,19 +4009,19 @@
         <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H23" s="10"/>
     </row>
@@ -4030,19 +4030,19 @@
         <v>409</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>468</v>
@@ -4056,25 +4056,25 @@
         <v>414</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>549</v>
-      </c>
       <c r="H25" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4082,22 +4082,22 @@
         <v>412</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="G26" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4108,19 +4108,19 @@
         <v>27</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>470</v>
@@ -4134,19 +4134,19 @@
         <v>29</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>470</v>
@@ -4160,19 +4160,19 @@
         <v>29</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>470</v>
@@ -4186,19 +4186,19 @@
         <v>31</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>471</v>
@@ -4212,19 +4212,19 @@
         <v>31</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>471</v>
@@ -4235,22 +4235,22 @@
         <v>399</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>472</v>
@@ -4261,22 +4261,22 @@
         <v>411</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>473</v>
@@ -4287,13 +4287,13 @@
         <v>404</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>35</v>
@@ -4302,10 +4302,10 @@
         <v>34</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>474</v>
+        <v>802</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4313,25 +4313,25 @@
         <v>467</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>560</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -4345,17 +4345,17 @@
         <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -4363,25 +4363,25 @@
         <v>398</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -4389,25 +4389,25 @@
         <v>400</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -4415,25 +4415,25 @@
         <v>408</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="H39" s="10" t="s">
         <v>777</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -4441,25 +4441,25 @@
         <v>407</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>568</v>
-      </c>
       <c r="H40" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -4467,25 +4467,25 @@
         <v>413</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G41" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>477</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -4493,25 +4493,25 @@
         <v>406</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="E42" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="G42" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4519,25 +4519,25 @@
         <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>549</v>
-      </c>
       <c r="H43" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4548,22 +4548,22 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4574,22 +4574,22 @@
         <v>27</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -4597,25 +4597,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -4623,25 +4623,25 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="G47" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -4649,25 +4649,25 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="G48" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -4675,25 +4675,25 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>575</v>
-      </c>
       <c r="H49" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -4701,25 +4701,25 @@
         <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>577</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -4730,22 +4730,22 @@
         <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>785</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -4753,10 +4753,10 @@
         <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>56</v>
@@ -4765,13 +4765,13 @@
         <v>55</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -4779,25 +4779,25 @@
         <v>466</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -4808,22 +4808,22 @@
         <v>60</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4831,25 +4831,25 @@
         <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G55" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="H55" s="12" t="s">
         <v>487</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4857,25 +4857,25 @@
         <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4883,25 +4883,25 @@
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4909,10 +4909,10 @@
         <v>465</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -4922,25 +4922,25 @@
         <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="F59" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>591</v>
-      </c>
       <c r="H59" s="12" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4948,22 +4948,22 @@
         <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G60" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>487</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -4971,22 +4971,22 @@
         <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="G61" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="H61" s="12" t="s">
         <v>489</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -4994,22 +4994,22 @@
         <v>72</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G62" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>491</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -5017,22 +5017,22 @@
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>793</v>
-      </c>
       <c r="G63" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -5043,22 +5043,22 @@
         <v>73</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="G64" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -5066,19 +5066,19 @@
         <v>464</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="G65" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H65" s="12"/>
     </row>
@@ -5090,22 +5090,22 @@
         <v>76</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>600</v>
-      </c>
       <c r="H66" s="12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -5113,23 +5113,23 @@
         <v>77</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="G67" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -5140,19 +5140,19 @@
         <v>79</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -5160,7 +5160,7 @@
         <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>83</v>
@@ -5172,10 +5172,10 @@
         <v>81</v>
       </c>
       <c r="G69" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>497</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -5186,17 +5186,17 @@
         <v>85</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -5204,10 +5204,10 @@
         <v>86</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>88</v>
@@ -5216,10 +5216,10 @@
         <v>87</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/IBK/excel/RA_BL_result_0716.xlsx
+++ b/IBK/excel/RA_BL_result_0716.xlsx
@@ -2517,10 +2517,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>MURCIA MAERSK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>000000553.jpg</t>
   </si>
   <si>
@@ -3009,6 +3005,10 @@
   <si>
     <t>HEUNG-A PUSAN</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MURCIA MAERSK 917W</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3440,7 +3440,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3449,10 +3449,10 @@
     <col min="2" max="2" width="55.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3476,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -3568,13 +3568,13 @@
         <v>641</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>648</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
@@ -3594,7 +3594,7 @@
         <v>651</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>652</v>
@@ -3626,7 +3626,7 @@
         <v>658</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
@@ -3669,7 +3669,7 @@
         <v>670</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>671</v>
@@ -3678,327 +3678,327 @@
         <v>672</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>673</v>
+        <v>802</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>680</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>683</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>688</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>691</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>696</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>699</v>
-      </c>
       <c r="E13" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>696</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>702</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>706</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>714</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>765</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="H17" s="9" t="s">
         <v>721</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>729</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="17" t="s">
         <v>736</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="9" t="s">
         <v>737</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>743</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>749</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>752</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>756</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>757</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>758</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4074,7 +4074,7 @@
         <v>548</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4097,7 +4097,7 @@
         <v>548</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4189,7 +4189,7 @@
         <v>618</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>551</v>
@@ -4215,7 +4215,7 @@
         <v>618</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>551</v>
@@ -4235,13 +4235,13 @@
         <v>399</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>619</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>510</v>
@@ -4270,7 +4270,7 @@
         <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>511</v>
@@ -4305,7 +4305,7 @@
         <v>557</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4313,7 +4313,7 @@
         <v>467</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>558</v>
@@ -4369,7 +4369,7 @@
         <v>612</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>39</v>
@@ -4395,7 +4395,7 @@
         <v>611</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
@@ -4415,13 +4415,13 @@
         <v>408</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>564</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>513</v>
@@ -4433,7 +4433,7 @@
         <v>565</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -4459,7 +4459,7 @@
         <v>567</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -4493,7 +4493,7 @@
         <v>406</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>570</v>
@@ -4537,7 +4537,7 @@
         <v>548</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4563,7 +4563,7 @@
         <v>550</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4589,7 +4589,7 @@
         <v>550</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -4597,13 +4597,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>609</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>510</v>
@@ -4623,7 +4623,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>620</v>
@@ -4649,7 +4649,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>572</v>
@@ -4675,7 +4675,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>572</v>
@@ -4733,7 +4733,7 @@
         <v>620</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>519</v>
@@ -4745,7 +4745,7 @@
         <v>550</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -4875,7 +4875,7 @@
         <v>557</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4901,7 +4901,7 @@
         <v>586</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4912,7 +4912,7 @@
         <v>587</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -4940,7 +4940,7 @@
         <v>590</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4951,13 +4951,13 @@
         <v>605</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>486</v>
@@ -5003,7 +5003,7 @@
         <v>536</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G62" s="12" t="s">
         <v>490</v>
@@ -5017,7 +5017,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>593</v>
@@ -5026,7 +5026,7 @@
         <v>536</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>492</v>
@@ -5105,7 +5105,7 @@
         <v>599</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -5160,7 +5160,7 @@
         <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>83</v>
@@ -5189,7 +5189,7 @@
         <v>542</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>543</v>
@@ -5204,7 +5204,7 @@
         <v>86</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>544</v>
